--- a/Algorithm/Leetcode-Questions-Sorted-by-Topic.xlsx
+++ b/Algorithm/Leetcode-Questions-Sorted-by-Topic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyf/Desktop/Programmer/Algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C37AF58-194A-574F-8685-26E4036AB4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE3701-FB45-404A-A427-FC6531F18E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D8DA381-91F3-5849-BDA9-85CD107ADFCC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{0D8DA381-91F3-5849-BDA9-85CD107ADFCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,13 +428,16 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
